--- a/biology/Zoologie/Acosmerycoides_harterti/Acosmerycoides_harterti.xlsx
+++ b/biology/Zoologie/Acosmerycoides_harterti/Acosmerycoides_harterti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acosmerycoides harterti, est une espèce de lépidoptères de la famille des Sphingidae. Elle est l'unique représentante du genre monotypique Acosmerycoides.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago
 Envergure du mâle : de 80 à 90 mm.
@@ -547,7 +561,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chenilles se nourrissent des espèces du genre Vitis.
 </t>
@@ -578,7 +594,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce se rencontre depuis l'état d'Assam en Inde, à l'est à travers le sud de la Chine jusqu'à Taiwan et au sud jusqu'en Thaïlande, au Laos et au Vietnam.
 </t>
@@ -609,12 +627,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le genre a été décrit par l'entomologiste allemand Rudolf Mell en 1922.
-La seule espèce a été décrite pour le naturaliste britannique Lionel Walter Rothschild en 1895 sous le nom initial de Ampelophaga harterti.
-Synonymie
-Ampelophaga harterti Rothschild, 1895 (Protonyme)
+La seule espèce a été décrite pour le naturaliste britannique Lionel Walter Rothschild en 1895 sous le nom initial de Ampelophaga harterti.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Acosmerycoides_harterti</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acosmerycoides_harterti</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ampelophaga harterti Rothschild, 1895 (Protonyme)
 Acosmerycoides insignata Mell, 1922
 Ampelophaga takamukui Matsumura, 1927
 Acosmerycoides horishana Matsumura, 1927
